--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2959910.211914858</v>
+        <v>2954132.673914132</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847142</v>
+        <v>2310564.14322317</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791241</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7477392.910800712</v>
+        <v>7476212.952019875</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>163.98921198331</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956608</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,13 +750,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>74.8670242453081</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>98.54676348899511</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.1045920014102</v>
+        <v>55.24675346159213</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779532</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>129.9528992084344</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348899511</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.017543089518</v>
       </c>
       <c r="U7" t="n">
-        <v>274.5027337971041</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>86.6429191269854</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1903889480794</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384512</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>32.51463166023018</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007169</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507267</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.49943888151675</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943264</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003576</v>
+        <v>280.459964427719</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281734</v>
+        <v>273.2139126555348</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415736</v>
+        <v>265.556883668935</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806956</v>
+        <v>282.527855808057</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313967</v>
+        <v>296.6956602587581</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029515</v>
+        <v>293.0012941303129</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752489</v>
+        <v>204.8123861026103</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453451</v>
+        <v>20.9239119118959</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443464</v>
+        <v>48.81858568179602</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622522</v>
+        <v>105.2357625896136</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158221</v>
+        <v>137.1653684431835</v>
       </c>
       <c r="V32" t="n">
-        <v>229.0993698495915</v>
+        <v>222.6559073769529</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274701</v>
+        <v>251.2592108548315</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623484</v>
+        <v>269.5282451897098</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346796</v>
+        <v>276.495968162041</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046296</v>
+        <v>67.32610467782435</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074537</v>
+        <v>52.47323292810675</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258509</v>
+        <v>38.04694813994648</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546421</v>
+        <v>37.97339019282559</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523147</v>
+        <v>39.72284161259286</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762361</v>
+        <v>50.54167953498499</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419565</v>
+        <v>37.89393170155704</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536758</v>
+        <v>15.73364728272897</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.0756081198235</v>
+        <v>6.632145647184885</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535082</v>
+        <v>84.7580891527122</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595229</v>
+        <v>117.3320274868843</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865928</v>
+        <v>166.5545700139542</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734587</v>
+        <v>147.2897179008201</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942088</v>
+        <v>164.4672642215702</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409214</v>
+        <v>115.7096851682828</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175978</v>
+        <v>104.8511067449592</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3740,10 +3740,10 @@
         <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803921962</v>
       </c>
       <c r="E41" t="n">
         <v>302.0908501643889</v>
@@ -3752,13 +3752,13 @@
         <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
-        <v>311.2485292668125</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822788</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812802</v>
+        <v>68.38158003812801</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W41" t="n">
         <v>270.8222052111635</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415635</v>
+        <v>86.88909903415633</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443874</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627846</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915757</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892484</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131698</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788902</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906095</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351687</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3964,7 +3964,7 @@
         <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
     <row r="44">
@@ -3977,10 +3977,10 @@
         <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118668</v>
+        <v>292.7769070118667</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>41.58521707215039</v>
       </c>
       <c r="E44" t="n">
         <v>302.0908501643889</v>
@@ -3989,10 +3989,10 @@
         <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
-        <v>312.564288486645</v>
+        <v>312.5642884866449</v>
       </c>
       <c r="H44" t="n">
-        <v>123.482997726113</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812802</v>
+        <v>68.38158003812798</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459455</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>156.7283627995154</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332848</v>
       </c>
       <c r="W44" t="n">
         <v>270.8222052111635</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415635</v>
+        <v>86.8890990341563</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443875</v>
+        <v>72.03622728443871</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627848</v>
+        <v>57.60994249627844</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915759</v>
+        <v>57.53638454915755</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892486</v>
+        <v>59.28583596892481</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131699</v>
+        <v>70.10467389131695</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788904</v>
+        <v>57.45692605788899</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906097</v>
+        <v>35.29664163906092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351688</v>
+        <v>26.19514000351684</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432163</v>
+        <v>136.8950218432162</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702861</v>
@@ -4201,7 +4201,7 @@
         <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012912</v>
+        <v>124.4141011012911</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1440.777126072524</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1440.777126072524</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1440.777126072524</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.193601189068</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>621.2991627190457</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>208.1364072070489</v>
+        <v>364.5813763321317</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1405114458668</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733286</v>
+        <v>242.2021271932858</v>
       </c>
       <c r="L2" t="n">
-        <v>1039.443159191857</v>
+        <v>735.5224189118146</v>
       </c>
       <c r="M2" t="n">
-        <v>1565.266048587711</v>
+        <v>1236.689201907266</v>
       </c>
       <c r="N2" t="n">
-        <v>2091.088937983565</v>
+        <v>1236.689201907266</v>
       </c>
       <c r="O2" t="n">
-        <v>2124.536926851936</v>
+        <v>1676.728802799594</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137458</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078508</v>
+        <v>1820.409826157689</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637925</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072524</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V2" t="n">
-        <v>1440.777126072524</v>
+        <v>999.0496848552224</v>
       </c>
       <c r="W2" t="n">
-        <v>1440.777126072524</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>1440.777126072524</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>1440.777126072524</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841.8567216770697</v>
+        <v>657.7430775364728</v>
       </c>
       <c r="C3" t="n">
-        <v>691.2024912371619</v>
+        <v>507.088847096565</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586422</v>
+        <v>376.9998797180453</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695299</v>
+        <v>240.5533888289331</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526618</v>
+        <v>116.1215827120649</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245262</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512713</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189925</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173057</v>
+        <v>637.179394016663</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173057</v>
+        <v>637.179394016663</v>
       </c>
       <c r="N3" t="n">
-        <v>1202.395275544557</v>
+        <v>1138.346177012114</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135538</v>
+        <v>1384.929834659828</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851936</v>
+        <v>1790.551203376226</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R3" t="n">
-        <v>2124.536926851936</v>
+        <v>2000.999251829181</v>
       </c>
       <c r="S3" t="n">
-        <v>2124.536926851936</v>
+        <v>1866.06857472905</v>
       </c>
       <c r="T3" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U3" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.0216196066</v>
       </c>
       <c r="V3" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977667</v>
       </c>
       <c r="W3" t="n">
-        <v>1362.274350692512</v>
+        <v>1026.364372110954</v>
       </c>
       <c r="X3" t="n">
-        <v>1172.967273042524</v>
+        <v>837.0572944609655</v>
       </c>
       <c r="Y3" t="n">
-        <v>993.653056118031</v>
+        <v>657.7430775364728</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>834.741203501409</v>
+        <v>241.0817140065312</v>
       </c>
       <c r="C4" t="n">
-        <v>834.741203501409</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="D4" t="n">
-        <v>679.1080904039238</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="E4" t="n">
-        <v>523.5492782631263</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="F4" t="n">
-        <v>366.2233434760992</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="G4" t="n">
-        <v>197.9692895755447</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703872</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703872</v>
+        <v>70.87659607252039</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590444</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785911</v>
+        <v>818.0443590727518</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785911</v>
+        <v>582.3253072409859</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.9377610785911</v>
+        <v>296.8865154828869</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1651.16456279946</v>
+        <v>551.209143373364</v>
       </c>
       <c r="C5" t="n">
-        <v>1257.98906130239</v>
+        <v>551.209143373364</v>
       </c>
       <c r="D5" t="n">
-        <v>872.5479325190579</v>
+        <v>551.209143373364</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>551.209143373364</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490356</v>
+        <v>538.3551089437458</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703872</v>
+        <v>125.1923534317489</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="J5" t="n">
-        <v>42.49073853703872</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>132.321092572754</v>
+        <v>544.1304548349123</v>
       </c>
       <c r="L5" t="n">
-        <v>625.6413842912829</v>
+        <v>990.7164596631947</v>
       </c>
       <c r="M5" t="n">
-        <v>1151.464273687137</v>
+        <v>1491.883242658646</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687137</v>
+        <v>1491.883242658646</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579465</v>
+        <v>1491.883242658646</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710987</v>
+        <v>1840.070734790168</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851936</v>
+        <v>1986.923381216638</v>
       </c>
       <c r="S5" t="n">
-        <v>2124.536926851936</v>
+        <v>1820.409826157689</v>
       </c>
       <c r="T5" t="n">
-        <v>1993.271372095941</v>
+        <v>1596.909223717105</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.271372095941</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="V5" t="n">
-        <v>1651.16456279946</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="W5" t="n">
-        <v>1651.16456279946</v>
+        <v>1341.156494151704</v>
       </c>
       <c r="X5" t="n">
-        <v>1651.16456279946</v>
+        <v>951.7038890847608</v>
       </c>
       <c r="Y5" t="n">
-        <v>1651.16456279946</v>
+        <v>951.7038890847608</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770697</v>
+        <v>736.0639889622246</v>
       </c>
       <c r="C6" t="n">
-        <v>691.2024912371619</v>
+        <v>585.4097585223168</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586422</v>
+        <v>455.3207911437971</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695299</v>
+        <v>318.8743002546848</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526618</v>
+        <v>194.4424941378167</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245262</v>
+        <v>74.38267620968109</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512713</v>
+        <v>74.38267620968109</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567661</v>
+        <v>153.6133081183497</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189925</v>
+        <v>473.3524541805762</v>
       </c>
       <c r="L6" t="n">
-        <v>958.9109527173057</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="M6" t="n">
-        <v>1484.550466580648</v>
+        <v>956.9185400788895</v>
       </c>
       <c r="N6" t="n">
-        <v>1484.550466580648</v>
+        <v>1458.085323074341</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580648</v>
+        <v>1619.294926214719</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297045</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851936</v>
+        <v>2024.916294931116</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851936</v>
+        <v>2000.999251829181</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851936</v>
+        <v>1866.06857472905</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927958</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.0216196066</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977667</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977667</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327679</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.653056118031</v>
+        <v>887.8603234031859</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.123851634524</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="C7" t="n">
-        <v>198.123851634524</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703872</v>
+        <v>40.49832589862233</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469806</v>
+        <v>122.3333670085642</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207804</v>
+        <v>286.461006882364</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590444</v>
+        <v>472.752585220628</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902535</v>
+        <v>655.9422192518373</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319615</v>
+        <v>818.6469862935453</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085401</v>
+        <v>938.5231520701238</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785911</v>
+        <v>941.9453484401748</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785911</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="U7" t="n">
-        <v>666.6622723946475</v>
+        <v>725.7660119861163</v>
       </c>
       <c r="V7" t="n">
-        <v>666.6622723946475</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="W7" t="n">
-        <v>383.3318703258252</v>
+        <v>459.7866668069405</v>
       </c>
       <c r="X7" t="n">
-        <v>383.3318703258252</v>
+        <v>225.7063445899236</v>
       </c>
       <c r="Y7" t="n">
-        <v>383.3318703258252</v>
+        <v>225.7063445899236</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1673.129190464088</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>144.6268723438257</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>503.6092283712875</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
         <v>1577.42141205333</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2073.623936175485</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2073.623936175485</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2073.623936175485</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2073.623936175485</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2073.623936175485</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2073.623936175485</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>847.557579564228</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>691.9244664667428</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>536.3656543259453</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>379.0397195389182</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5069,22 +5069,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>3001.540449150954</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2754.374321141661</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2478.315967397137</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1606.310991511064</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>2262.088962721623</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551002</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082775</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443717</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311669</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H13" t="n">
         <v>100.2728717798493</v>
@@ -5209,13 +5209,13 @@
         <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5230,19 +5230,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553816</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3048.886244921416</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3048.886244921416</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>3048.886244921416</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>3048.886244921416</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2772.827891176892</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604927</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311672</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362513</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.2831496757664</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
         <v>1581.729743385192</v>
@@ -5464,22 +5464,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553821</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292424</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5674,16 +5674,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>806.619390679759</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296503</v>
@@ -5744,16 +5744,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,13 +5783,13 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5920,16 +5920,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.619390679759</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -6072,19 +6072,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6148,19 +6148,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
         <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6206,22 +6206,22 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6233,31 +6233,31 @@
         <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
         <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,10 +6312,10 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6361,37 +6361,37 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.707882522574</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6598,37 +6598,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6661,10 +6661,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084636</v>
+        <v>1719.814764781098</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985471</v>
+        <v>1443.841115634093</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600043</v>
+        <v>1175.601839200825</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144914</v>
+        <v>890.2201666674346</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423735</v>
+        <v>590.5275805474769</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282811</v>
+        <v>294.5666773855446</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267619</v>
+        <v>87.68547930209958</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="J32" t="n">
-        <v>310.9628692786634</v>
+        <v>211.1999876534571</v>
       </c>
       <c r="K32" t="n">
-        <v>778.4357329465113</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1380.246532305426</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.247432350007</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987469</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879797</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.28580901132</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152268</v>
+        <v>3327.510737231449</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152268</v>
+        <v>3327.510737231449</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491223</v>
+        <v>3278.199034522564</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448544</v>
+        <v>3171.900284432045</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281047</v>
+        <v>3033.349407216708</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.03089038247</v>
+        <v>2808.444450270291</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748662</v>
+        <v>2554.647267588643</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079623</v>
+        <v>2282.396514871765</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398129</v>
+        <v>2003.10765814243</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230763</v>
+        <v>865.9161978846599</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831685</v>
+        <v>715.2619674447521</v>
       </c>
       <c r="D33" t="n">
-        <v>587.1654127046488</v>
+        <v>585.1730000662325</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155366</v>
+        <v>448.7265091771202</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986684</v>
+        <v>324.294703060252</v>
       </c>
       <c r="G33" t="n">
-        <v>206.2272977705329</v>
+        <v>204.2348851321165</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711338</v>
+        <v>115.9374687327174</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027728</v>
+        <v>179.6651969643564</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649992</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633124</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>984.9628415633124</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766816</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.01916188853</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590181</v>
+        <v>341.6872565554802</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229117</v>
+        <v>288.683990971534</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233307</v>
+        <v>250.2527302241133</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804376</v>
+        <v>211.8957704333804</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913149</v>
+        <v>171.7716879964179</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886648</v>
+        <v>120.719486445928</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806314</v>
+        <v>82.44278775748651</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304537</v>
+        <v>66.55021474462897</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929873</v>
+        <v>148.3852558545709</v>
       </c>
       <c r="L34" t="n">
-        <v>343.1384592729357</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>637.9205452515857</v>
+        <v>613.6740095549329</v>
       </c>
       <c r="N34" t="n">
-        <v>929.600686923181</v>
+        <v>810.7134513543766</v>
       </c>
       <c r="O34" t="n">
-        <v>1200.795961605275</v>
+        <v>1088.287753884383</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381854</v>
+        <v>1323.03345514926</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392291</v>
+        <v>1326.455651519311</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.377146422772</v>
+        <v>1319.756514501952</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003226</v>
+        <v>1234.142283034566</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569364</v>
+        <v>1115.625083552865</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209169</v>
+        <v>947.3881441448304</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914278979</v>
+        <v>798.6106513157192</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569799</v>
+        <v>632.4821015969613</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378674</v>
+        <v>515.6036317300091</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.754219152415</v>
+        <v>409.6934228967169</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,13 +6971,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229871</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222406</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960404</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343044</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655136</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>978.5393418843826</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>812.1990332879423</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296503</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1584.841167182323</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1289.106917675387</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1001.107040882188</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>695.9647679888658</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F41" t="n">
-        <v>376.5115815089766</v>
+        <v>418.736496143381</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215174</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,16 +7445,16 @@
         <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2752.513254111242</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2478.955471069663</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X41" t="n">
-        <v>2186.944117992853</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y41" t="n">
-        <v>1887.894660903587</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344858</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906083</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832563</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325922</v>
+        <v>286.5070848325921</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356983</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252771</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690437</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822077</v>
+        <v>68.2319501674381</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529096</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170086</v>
+        <v>505.198973302239</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308022</v>
+        <v>786.9927227160326</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954779</v>
+        <v>1323.891465940009</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237698</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S43" t="n">
         <v>1506.359601033091</v>
@@ -7606,13 +7606,13 @@
         <v>1011.54616823445</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557609</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288773</v>
+        <v>689.0179479288772</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356539</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1710.900517632774</v>
+        <v>1340.175609875976</v>
       </c>
       <c r="C44" t="n">
-        <v>1415.166268125838</v>
+        <v>1044.44136036904</v>
       </c>
       <c r="D44" t="n">
-        <v>1127.166391332638</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>822.0241184393162</v>
+        <v>697.2938177058679</v>
       </c>
       <c r="F44" t="n">
-        <v>502.5709319594272</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>186.8494284375629</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2878.572604561693</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V44" t="n">
-        <v>2878.572604561693</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2605.014821520113</v>
+        <v>2234.289913763315</v>
       </c>
       <c r="X44" t="n">
-        <v>2313.003468443304</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y44" t="n">
-        <v>2013.954011354038</v>
+        <v>1643.22910359724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344859</v>
+        <v>475.5803720344856</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906084</v>
+        <v>402.8165060906081</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832564</v>
+        <v>344.6246449832562</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325922</v>
+        <v>286.507084832592</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356984</v>
+        <v>226.6224020356982</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252771</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690438</v>
+        <v>97.77230107690434</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,7 +7807,7 @@
         <v>127.8475561822077</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>305.1847683676792</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170086</v>
@@ -7816,40 +7816,40 @@
         <v>846.6083287308022</v>
       </c>
       <c r="N46" t="n">
-        <v>1065.684527822772</v>
+        <v>1065.684527822771</v>
       </c>
       <c r="O46" t="n">
         <v>1323.891465940009</v>
       </c>
       <c r="P46" t="n">
-        <v>1539.269802792118</v>
+        <v>1539.269802792117</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237698</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.734432860409</v>
+        <v>1611.734432860408</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033091</v>
+        <v>1506.35960103309</v>
       </c>
       <c r="T46" t="n">
         <v>1368.081801191458</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423493</v>
+        <v>1180.084261423492</v>
       </c>
       <c r="V46" t="n">
         <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155761</v>
+        <v>825.6570181557606</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288773</v>
+        <v>689.017947928877</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.347138735654</v>
+        <v>563.3471387356536</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.6887348821014</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107111</v>
+        <v>655.9541253305063</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507681</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>183.3496847658847</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,7 +8058,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,16 +8067,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>331.3158732857337</v>
+        <v>591.6011865869457</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.7619605532463</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>233.7961345284448</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.3451443045143</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107111</v>
+        <v>655.9541253305063</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8301,19 +8301,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>623.3361259516776</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>591.6011865869457</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>255.5255418589677</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>215.9767088941462</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585533</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9015,7 +9015,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>459.8553156798577</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9720,22 +9720,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,16 +10197,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10431,22 +10431,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>333.2595653118433</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>373.8515870339854</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>126.6892961352007</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385698</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14.35770615252674</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.021567221345</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.315759219832384</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.4869062682279</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531166</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>100.8923827328294</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.4869062682279</v>
+        <v>40.48690626822786</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25916,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>652598.6215633004</v>
+        <v>651997.07394954</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>652598.6215633004</v>
+        <v>651997.07394954</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>618975.0153756473</v>
+        <v>618975.0153756472</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>618975.0153756473</v>
+        <v>618975.0153756472</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>621561.36190513</v>
+        <v>621561.3619051299</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621561.36190513</v>
+        <v>621561.3619051299</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>631162.6233267487</v>
       </c>
       <c r="D2" t="n">
-        <v>631162.6233267488</v>
+        <v>631162.623326749</v>
       </c>
       <c r="E2" t="n">
-        <v>593166.4293913343</v>
+        <v>593166.4293913341</v>
       </c>
       <c r="F2" t="n">
-        <v>593166.4293913342</v>
+        <v>593166.4293913338</v>
       </c>
       <c r="G2" t="n">
-        <v>631162.6233267492</v>
+        <v>631162.6233267487</v>
       </c>
       <c r="H2" t="n">
         <v>631162.623326749</v>
       </c>
       <c r="I2" t="n">
-        <v>631162.6233267487</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="J2" t="n">
         <v>631162.6233267487</v>
@@ -26341,19 +26341,19 @@
         <v>631162.6233267487</v>
       </c>
       <c r="L2" t="n">
-        <v>631162.6233267493</v>
+        <v>631162.6233267488</v>
       </c>
       <c r="M2" t="n">
         <v>631162.6233267491</v>
       </c>
       <c r="N2" t="n">
-        <v>631162.623326749</v>
+        <v>631162.6233267491</v>
       </c>
       <c r="O2" t="n">
-        <v>595752.7759208156</v>
+        <v>595752.7759208159</v>
       </c>
       <c r="P2" t="n">
-        <v>595752.7759208155</v>
+        <v>595752.775920816</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343503</v>
+        <v>169649.0058765501</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602693</v>
+        <v>26460.41160941797</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301436</v>
+        <v>29094.95587301437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469662</v>
+        <v>215329.5897923935</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670144</v>
+        <v>46725.80335481234</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436855</v>
+        <v>43782.97194555662</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015681</v>
+        <v>18983.55983015684</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249337</v>
+        <v>198138.1733873961</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249337</v>
+        <v>198138.1733873961</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26436,7 +26436,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="J4" t="n">
         <v>148402.4904640163</v>
@@ -26445,7 +26445,7 @@
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26454,7 +26454,7 @@
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551427</v>
       </c>
       <c r="P4" t="n">
         <v>124722.2932551427</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814942</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814942</v>
+        <v>64406.32768295296</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446762</v>
+        <v>60332.67530588342</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>195219.2181793155</v>
+        <v>198969.1163798497</v>
       </c>
       <c r="C6" t="n">
-        <v>373214.5153136656</v>
+        <v>368618.1222563997</v>
       </c>
       <c r="D6" t="n">
-        <v>365615.0320993901</v>
+        <v>357878.7428759991</v>
       </c>
       <c r="E6" t="n">
-        <v>284553.5313885618</v>
+        <v>284444.9708344604</v>
       </c>
       <c r="F6" t="n">
-        <v>415006.4625262739</v>
+        <v>414897.9019721723</v>
       </c>
       <c r="G6" t="n">
-        <v>396245.9001385819</v>
+        <v>396245.9001385815</v>
       </c>
       <c r="H6" t="n">
         <v>425340.8560115961</v>
       </c>
       <c r="I6" t="n">
-        <v>425340.8560115959</v>
+        <v>425340.8560115962</v>
       </c>
       <c r="J6" t="n">
-        <v>197255.2126618467</v>
+        <v>203771.4978164194</v>
       </c>
       <c r="K6" t="n">
         <v>419101.0876088129</v>
       </c>
       <c r="L6" t="n">
-        <v>380206.7406762251</v>
+        <v>376157.9034657527</v>
       </c>
       <c r="M6" t="n">
-        <v>382609.5790772277</v>
+        <v>381557.8840660396</v>
       </c>
       <c r="N6" t="n">
-        <v>425340.8560115961</v>
+        <v>425340.8560115962</v>
       </c>
       <c r="O6" t="n">
-        <v>396726.5150529654</v>
+        <v>396625.3440603773</v>
       </c>
       <c r="P6" t="n">
-        <v>415710.0748831222</v>
+        <v>415608.9038905342</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880671</v>
+        <v>831.8776843078622</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.9637917208768</v>
+        <v>58.40725419351543</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165911</v>
+        <v>14.33013548902046</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769601</v>
+        <v>23.72944978769605</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455631114</v>
+        <v>85.18305253651602</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559181</v>
+        <v>646.8007142757129</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.783224045526</v>
+        <v>129.6883820257309</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126795</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.6225796330485</v>
+        <v>57.62257963304853</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455631114</v>
+        <v>85.18305253651602</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>156.8530079458642</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857346</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.9921955035461</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6672101940855</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.25134650297805</v>
+        <v>128.1091850427961</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.9951326713789</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>91.3126972077431</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464025934</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.6672101940855</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393023</v>
       </c>
       <c r="U7" t="n">
-        <v>8.081670043413965</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>134.6226772891921</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>68.3126778065913</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,10 +28755,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5.636002634528467</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="O22" t="n">
-        <v>5.636002634528467</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29068,7 +29068,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29220,22 +29220,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>30.27223765901132</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,10 +29551,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J32" t="n">
-        <v>98.75804948160598</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>103.2865954513745</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>28.92237465267539</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539253</v>
+        <v>13.98970481639847</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539253</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539253</v>
+        <v>116.0298338265639</v>
       </c>
     </row>
     <row r="35">
@@ -30165,13 +30165,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668753</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30180,10 +30180,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023192</v>
+        <v>36.24905561692935</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561692961</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023193</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="N46" t="n">
-        <v>36.24905561692941</v>
+        <v>36.24905561692873</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023192</v>
+        <v>96.46683947023196</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170286399</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129839</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.78584734178831</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>245.9437604315671</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643574</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>90.73773134920739</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740226</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129839</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35021,19 +35021,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>530.9490039023657</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>506.2290737327791</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>162.8379829700788</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>98.29687095180005</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043866</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35735,7 +35735,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>374.483202825691</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M17" t="n">
         <v>551.5160606510915</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,10 +36051,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>169.9842521716073</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36288,19 +36288,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905432</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>169.9842521716073</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N23" t="n">
         <v>533.1427107449111</v>
@@ -36440,22 +36440,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,22 +36601,22 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>216.9849246700705</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>581.7882983101038</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,10 +36847,10 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,16 +36917,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>244.868931207695</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857049</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221363</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37081,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723503</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>289.9992824624337</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,22 +37151,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>247.8874524576767</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>194.7078694746954</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067173</v>
+        <v>304.2031452793559</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288841</v>
+        <v>199.0297391913573</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910042</v>
+        <v>280.3780833636428</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645221</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640778</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634528463</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37476,10 +37476,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807285</v>
+        <v>6.174568144770276</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570419</v>
@@ -37944,7 +37944,7 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451907</v>
@@ -37956,7 +37956,7 @@
         <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708209</v>
+        <v>99.92360348038441</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>286.7682222146707</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807285</v>
+        <v>66.39235199807288</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,10 +38181,10 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>284.6401509230238</v>
+        <v>284.6401509230239</v>
       </c>
       <c r="N46" t="n">
-        <v>221.2890899918882</v>
+        <v>221.2890899918875</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073108</v>
@@ -38193,7 +38193,7 @@
         <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.9236034803844</v>
+        <v>99.92360348038444</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
